--- a/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Advanced Course Files/Instructor Files/Section 2/02-19-xmatch-Complete.xlsx
+++ b/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Advanced Course Files/Instructor Files/Section 2/02-19-xmatch-Complete.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f21e54c367d3358c/Documents/01 Work Files/05 SSIT/Online Courses/Excel 2021 Advanced/Course Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git_Excel_Learning\normal\Excel 2021 Beginner to Advanced Course Files\Excel 2021 Advanced Course Files\Instructor Files\Section 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D3A5271-0ED5-4917-B82E-34B62CE65CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF266503-A310-4CCA-926E-53B87A040E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{F7C54BF8-C9F0-42E7-882B-0196C240C315}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F7C54BF8-C9F0-42E7-882B-0196C240C315}"/>
   </bookViews>
   <sheets>
     <sheet name="XMATCH" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
   <si>
     <t>Google Docs</t>
   </si>
@@ -164,6 +164,12 @@
   </si>
   <si>
     <t>Example 3</t>
+  </si>
+  <si>
+    <t>there are two employee achieve this bonus</t>
+  </si>
+  <si>
+    <t>index + xmatch</t>
   </si>
 </sst>
 </file>
@@ -171,8 +177,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -213,7 +219,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -228,6 +234,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF008000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,10 +305,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -305,10 +317,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -590,34 +604,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E86906-9D4F-417C-B01C-B523EEC5EA67}">
   <dimension ref="A2:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.19921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.09765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.69921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.09765625" style="1" customWidth="1"/>
     <col min="8" max="8" width="15" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.875" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.75" style="1"/>
+    <col min="9" max="9" width="11.69921875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.3984375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.59765625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.09765625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.8984375" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3"/>
       <c r="C3"/>
@@ -627,7 +641,7 @@
       <c r="G3"/>
       <c r="H3"/>
     </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -643,7 +657,7 @@
       <c r="G4"/>
       <c r="H4"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -660,7 +674,7 @@
       <c r="G5"/>
       <c r="H5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -672,7 +686,7 @@
       <c r="G6"/>
       <c r="H6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -684,7 +698,7 @@
       <c r="G7"/>
       <c r="H7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -696,7 +710,7 @@
       <c r="G8"/>
       <c r="H8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -708,7 +722,7 @@
       <c r="G9"/>
       <c r="H9"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -720,7 +734,7 @@
       <c r="G10"/>
       <c r="H10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -732,7 +746,7 @@
       <c r="G11"/>
       <c r="H11"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -742,7 +756,7 @@
       <c r="G12"/>
       <c r="H12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -752,7 +766,7 @@
       <c r="G13"/>
       <c r="H13"/>
     </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
@@ -764,7 +778,7 @@
       <c r="G14"/>
       <c r="H14"/>
     </row>
-    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -774,7 +788,7 @@
       <c r="G15"/>
       <c r="H15"/>
     </row>
-    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>19</v>
       </c>
@@ -792,11 +806,11 @@
       <c r="G16"/>
       <c r="H16"/>
     </row>
-    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="13">
         <v>25000</v>
       </c>
       <c r="C17"/>
@@ -806,11 +820,11 @@
       <c r="G17"/>
       <c r="H17"/>
     </row>
-    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="13">
         <v>18000</v>
       </c>
       <c r="C18"/>
@@ -821,11 +835,13 @@
         <f>_xlfn.XMATCH(E16,B17:B23,1,1)</f>
         <v>2</v>
       </c>
-      <c r="F18"/>
+      <c r="F18" t="s">
+        <v>36</v>
+      </c>
       <c r="G18"/>
       <c r="H18"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -839,7 +855,7 @@
       <c r="G19"/>
       <c r="H19"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -853,7 +869,7 @@
       <c r="G20"/>
       <c r="H20"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -867,7 +883,7 @@
       <c r="G21"/>
       <c r="H21"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -881,7 +897,7 @@
       <c r="G22"/>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -895,7 +911,7 @@
       <c r="G23"/>
       <c r="H23"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -905,7 +921,7 @@
       <c r="G24"/>
       <c r="H24"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -915,13 +931,15 @@
       <c r="G25"/>
       <c r="H25"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E26"/>
       <c r="F26"/>
-      <c r="G26"/>
+      <c r="G26" t="s">
+        <v>37</v>
+      </c>
       <c r="H26"/>
     </row>
-    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>35</v>
       </c>
@@ -930,13 +948,13 @@
       <c r="G27"/>
       <c r="H27"/>
     </row>
-    <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E28"/>
       <c r="F28"/>
       <c r="G28"/>
       <c r="H28"/>
     </row>
-    <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>19</v>
       </c>
@@ -958,7 +976,7 @@
       </c>
       <c r="H29"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -976,7 +994,7 @@
       <c r="G30"/>
       <c r="H30"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -999,7 +1017,7 @@
       </c>
       <c r="H31"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -1022,7 +1040,7 @@
       </c>
       <c r="H32"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -1040,7 +1058,7 @@
       <c r="G33"/>
       <c r="H33"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -1058,7 +1076,7 @@
       <c r="G34"/>
       <c r="H34"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>18</v>
       </c>
@@ -1076,7 +1094,7 @@
       <c r="G35"/>
       <c r="H35"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -1090,7 +1108,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
